--- a/fMRI Tasks/WASABI distractmap/nbackorder/N-back-1_5.xlsx
+++ b/fMRI Tasks/WASABI distractmap/nbackorder/N-back-1_5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\canlab\WASABI_public\fMRI Tasks\WASABI distractmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dartmouth\Documents\GitHub\canlab\WASABI_public\fMRI Tasks\WASABI distractmap\nbackorder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36043659-CB29-4784-8535-1EF94FE652C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E3BE36-4A6C-4EDE-83B2-A6C450C916ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38745" yWindow="345" windowWidth="24135" windowHeight="20370" xr2:uid="{5EBBBE69-F2EF-4F00-AC42-DEAE645BEE21}"/>
+    <workbookView xWindow="8415" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{5EBBBE69-F2EF-4F00-AC42-DEAE645BEE21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="1" r:id="rId1"/>
@@ -503,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB96927-F042-4AA6-8D74-F776C56B9FAC}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,6 +609,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="str">
+        <f>VLOOKUP(A9,'[1]Square Locations'!A$1:$B$10,2,FALSE)</f>
+        <v>[-0.2, 0.2]</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="str">
+        <f>VLOOKUP(A10,'[1]Square Locations'!A$1:$B$10,2,FALSE)</f>
+        <v>[0.2, 0]</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP(A11,'[1]Square Locations'!A$1:$B$10,2,FALSE)</f>
+        <v>[0.2, 0]</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
